--- a/ArticleManage/main_working_folder/output_folders/Data 85 Valorisation of Natural Fibres/Data85_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 85 Valorisation of Natural Fibres/Data85_all_graphs_excel.xlsx
@@ -5,11 +5,11 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="BB-32" sheetId="1" r:id="rId1"/>
-    <sheet name="BS-62" sheetId="2" r:id="rId4"/>
-    <sheet name="BW-42" sheetId="3" r:id="rId5"/>
-    <sheet name="BW-63" sheetId="4" r:id="rId6"/>
-    <sheet name="BW-C" sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 1 BB-32  0-1-0-32 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 1 BS-62  0-1-0-32 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 1 BW-42  0-1-0-32 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 1 BW-63  0-1-0-32 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 1 BW-C  0-1-0-32 " sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -113,7 +113,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki BB-32</a:t>
+              <a:t>Izoterma adsorpcji probki BB-32 z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -172,12 +172,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'BB-32'!$A$3:$A$50</c:f>
+              <c:f>'Figure 1 BB-32  0-1-0-32 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'BB-32'!$B$3:$B$50</c:f>
+              <c:f>'Figure 1 BB-32  0-1-0-32 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -190,6 +190,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -259,6 +261,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="32"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -423,7 +427,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki BS-62</a:t>
+              <a:t>Izoterma adsorpcji probki BS-62 z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -482,12 +486,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'BS-62'!$A$3:$A$50</c:f>
+              <c:f>'Figure 1 BS-62  0-1-0-32 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'BS-62'!$B$3:$B$50</c:f>
+              <c:f>'Figure 1 BS-62  0-1-0-32 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -500,6 +504,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -569,6 +575,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="32"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -733,7 +741,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki BW-42</a:t>
+              <a:t>Izoterma adsorpcji probki BW-42 z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -792,12 +800,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'BW-42'!$A$3:$A$50</c:f>
+              <c:f>'Figure 1 BW-42  0-1-0-32 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'BW-42'!$B$3:$B$50</c:f>
+              <c:f>'Figure 1 BW-42  0-1-0-32 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -810,6 +818,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -879,6 +889,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="32"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1043,7 +1055,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki BW-63</a:t>
+              <a:t>Izoterma adsorpcji probki BW-63 z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1102,12 +1114,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'BW-63'!$A$3:$A$50</c:f>
+              <c:f>'Figure 1 BW-63  0-1-0-32 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'BW-63'!$B$3:$B$50</c:f>
+              <c:f>'Figure 1 BW-63  0-1-0-32 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1120,6 +1132,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1189,6 +1203,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="32"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1353,7 +1369,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki BW-C</a:t>
+              <a:t>Izoterma adsorpcji probki BW-C z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1412,12 +1428,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'BW-C'!$A$3:$A$50</c:f>
+              <c:f>'Figure 1 BW-C  0-1-0-32 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'BW-C'!$B$3:$B$50</c:f>
+              <c:f>'Figure 1 BW-C  0-1-0-32 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1430,6 +1446,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1499,6 +1517,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="32"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 85 Valorisation of Natural Fibres/Data85_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 85 Valorisation of Natural Fibres/Data85_all_graphs_excel.xlsx
@@ -4927,7 +4927,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4948,405 +4948,309 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.12</v>
+        <v>0.852</v>
       </c>
       <c r="B3" s="0">
-        <v>12.3702</v>
+        <v>14.5646</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.14</v>
+        <v>0.8023</v>
       </c>
       <c r="B4" s="0">
-        <v>12.527</v>
+        <v>14.4802</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.16</v>
+        <v>0.7468</v>
       </c>
       <c r="B5" s="0">
-        <v>12.6749</v>
+        <v>14.3536</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.18</v>
+        <v>0.7254</v>
       </c>
       <c r="B6" s="0">
-        <v>12.8012</v>
+        <v>14.2691</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.2</v>
+        <v>0.7001</v>
       </c>
       <c r="B7" s="0">
-        <v>12.8951</v>
+        <v>14.2269</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.22</v>
+        <v>0.6738</v>
       </c>
       <c r="B8" s="0">
-        <v>12.9465</v>
+        <v>14.2269</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.24</v>
+        <v>0.6485</v>
       </c>
       <c r="B9" s="0">
-        <v>12.9902</v>
+        <v>14.1847</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.26</v>
+        <v>0.6241</v>
       </c>
       <c r="B10" s="0">
-        <v>13.0709</v>
+        <v>14.1003</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.28</v>
+        <v>0.5969</v>
       </c>
       <c r="B11" s="0">
-        <v>13.1736</v>
+        <v>14.0158</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.3</v>
+        <v>0.5725</v>
       </c>
       <c r="B12" s="0">
-        <v>13.2682</v>
+        <v>13.9314</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.32</v>
+        <v>0.5501</v>
       </c>
       <c r="B13" s="0">
-        <v>13.345</v>
+        <v>13.9314</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.34</v>
+        <v>0.5239</v>
       </c>
       <c r="B14" s="0">
-        <v>13.3963</v>
+        <v>13.8892</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.36</v>
+        <v>0.5005</v>
       </c>
       <c r="B15" s="0">
-        <v>13.4357</v>
+        <v>13.7625</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.38</v>
+        <v>0.4752</v>
       </c>
       <c r="B16" s="0">
-        <v>13.4781</v>
+        <v>13.6781</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.4</v>
+        <v>0.4479</v>
       </c>
       <c r="B17" s="0">
-        <v>13.5387</v>
+        <v>13.5515</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.42</v>
+        <v>0.4216</v>
       </c>
       <c r="B18" s="0">
-        <v>13.6374</v>
+        <v>13.5092</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.44</v>
+        <v>0.4021</v>
       </c>
       <c r="B19" s="0">
-        <v>13.748</v>
+        <v>13.5092</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.46</v>
+        <v>0.3739</v>
       </c>
       <c r="B20" s="0">
-        <v>13.8491</v>
+        <v>13.3826</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.48</v>
+        <v>0.3476</v>
       </c>
       <c r="B21" s="0">
-        <v>13.9272</v>
+        <v>13.2982</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.5</v>
+        <v>0.3223</v>
       </c>
       <c r="B22" s="0">
-        <v>13.9783</v>
+        <v>13.2137</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.52</v>
+        <v>0.295</v>
       </c>
       <c r="B23" s="0">
-        <v>14.0064</v>
+        <v>13.1293</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.54</v>
+        <v>0.2726</v>
       </c>
       <c r="B24" s="0">
-        <v>14.0122</v>
+        <v>13.0449</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.56</v>
+        <v>0.2512</v>
       </c>
       <c r="B25" s="0">
-        <v>14.0104</v>
+        <v>13.0026</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.58</v>
+        <v>0.2249</v>
       </c>
       <c r="B26" s="0">
-        <v>14.0174</v>
+        <v>12.9182</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.6</v>
+        <v>0.1743</v>
       </c>
       <c r="B27" s="0">
-        <v>14.0543</v>
+        <v>12.6649</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.62</v>
+        <v>0.148</v>
       </c>
       <c r="B28" s="0">
-        <v>14.1378</v>
+        <v>12.5805</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.64</v>
+        <v>0.1207</v>
       </c>
       <c r="B29" s="0">
-        <v>14.2317</v>
+        <v>12.4538</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.66</v>
+        <v>0.1003</v>
       </c>
       <c r="B30" s="0">
-        <v>14.2969</v>
+        <v>12.3272</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.68</v>
+        <v>0.0837</v>
       </c>
       <c r="B31" s="0">
-        <v>14.3189</v>
+        <v>12.2005</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.7</v>
+        <v>0.073</v>
       </c>
       <c r="B32" s="0">
-        <v>14.3168</v>
+        <v>12.0739</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.72</v>
+        <v>0.0613</v>
       </c>
       <c r="B33" s="0">
-        <v>14.3208</v>
+        <v>11.9472</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.74</v>
+        <v>0.0526</v>
       </c>
       <c r="B34" s="0">
-        <v>14.3539</v>
+        <v>11.8206</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.76</v>
+        <v>0.0409</v>
       </c>
       <c r="B35" s="0">
-        <v>14.4093</v>
+        <v>11.6939</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.78</v>
+        <v>0.0312</v>
       </c>
       <c r="B36" s="0">
-        <v>14.4704</v>
+        <v>11.4406</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.8</v>
+        <v>0.0214</v>
       </c>
       <c r="B37" s="0">
-        <v>14.5263</v>
+        <v>11.1873</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.82</v>
+        <v>0.0156</v>
       </c>
       <c r="B38" s="0">
-        <v>14.5724</v>
+        <v>10.9763</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.84</v>
+        <v>0.0107</v>
       </c>
       <c r="B39" s="0">
-        <v>14.6096</v>
+        <v>10.723</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.86</v>
+        <v>0.0049</v>
       </c>
       <c r="B40" s="0">
-        <v>14.6467</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B41" s="0">
-        <v>14.679</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B42" s="0">
-        <v>14.7008</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B43" s="0">
-        <v>14.7206</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.9542</v>
-      </c>
-      <c r="B44" s="0">
-        <v>14.7335</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.0983</v>
-      </c>
-      <c r="B45" s="0">
-        <v>12.3272</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.0779</v>
-      </c>
-      <c r="B46" s="0">
-        <v>12.1583</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.0574</v>
-      </c>
-      <c r="B47" s="0">
-        <v>11.9472</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.0438</v>
-      </c>
-      <c r="B48" s="0">
-        <v>11.6939</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.0292</v>
-      </c>
-      <c r="B49" s="0">
-        <v>11.3984</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.0166</v>
-      </c>
-      <c r="B50" s="0">
-        <v>10.934</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.0097</v>
-      </c>
-      <c r="B51" s="0">
-        <v>10.5963</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.0049</v>
-      </c>
-      <c r="B52" s="0">
-        <v>10.0897</v>
-      </c>
-    </row>
-    <row r="53"/>
+        <v>10.2586</v>
+      </c>
+    </row>
+    <row r="41"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -5355,7 +5259,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5376,413 +5280,349 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0046</v>
+        <v>0.001</v>
       </c>
       <c r="B3" s="0">
-        <v>14.0026</v>
+        <v>13.847</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0114</v>
+        <v>0.0039</v>
       </c>
       <c r="B4" s="0">
-        <v>17.0556</v>
+        <v>15.9156</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.009</v>
+        <v>0.0097</v>
       </c>
       <c r="B5" s="0">
-        <v>15.7022</v>
+        <v>17.1821</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0175</v>
+        <v>0.0136</v>
       </c>
       <c r="B6" s="0">
-        <v>18.2302</v>
+        <v>18.0264</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0261</v>
+        <v>0.0185</v>
       </c>
       <c r="B7" s="0">
-        <v>19.3399</v>
+        <v>18.5752</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0367</v>
+        <v>0.0243</v>
       </c>
       <c r="B8" s="0">
-        <v>20.2531</v>
+        <v>19.1662</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0512</v>
+        <v>0.0292</v>
       </c>
       <c r="B9" s="0">
-        <v>21.1459</v>
+        <v>19.6306</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0677</v>
+        <v>0.0341</v>
       </c>
       <c r="B10" s="0">
-        <v>22.056</v>
+        <v>20.0528</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0876</v>
+        <v>0.0389</v>
       </c>
       <c r="B11" s="0">
-        <v>22.8501</v>
+        <v>20.3905</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.1067</v>
+        <v>0.0438</v>
       </c>
       <c r="B12" s="0">
-        <v>23.5871</v>
+        <v>20.7704</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.1285</v>
+        <v>0.0497</v>
       </c>
       <c r="B13" s="0">
-        <v>24.1388</v>
+        <v>21.1504</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.1492</v>
+        <v>0.0555</v>
       </c>
       <c r="B14" s="0">
-        <v>24.6735</v>
+        <v>21.5303</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.1697</v>
+        <v>0.0604</v>
       </c>
       <c r="B15" s="0">
-        <v>25.1045</v>
+        <v>21.7836</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.1902</v>
+        <v>0.0652</v>
       </c>
       <c r="B16" s="0">
-        <v>25.5509</v>
+        <v>22.0792</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2107</v>
+        <v>0.0789</v>
       </c>
       <c r="B17" s="0">
-        <v>25.6997</v>
+        <v>22.628</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.2317</v>
+        <v>0.0886</v>
       </c>
       <c r="B18" s="0">
-        <v>25.9755</v>
+        <v>23.0501</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.2507</v>
+        <v>0.0964</v>
       </c>
       <c r="B19" s="0">
-        <v>26.0678</v>
+        <v>23.3879</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.2735</v>
+        <v>0.1207</v>
       </c>
       <c r="B20" s="0">
-        <v>26.4081</v>
+        <v>24.0633</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.2972</v>
+        <v>0.1461</v>
       </c>
       <c r="B21" s="0">
-        <v>26.6005</v>
+        <v>24.6966</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.3222</v>
+        <v>0.1685</v>
       </c>
       <c r="B22" s="0">
-        <v>26.7422</v>
+        <v>25.1187</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.3426</v>
+        <v>0.1986</v>
       </c>
       <c r="B23" s="0">
-        <v>26.9303</v>
+        <v>25.5831</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.3638</v>
+        <v>0.222</v>
       </c>
       <c r="B24" s="0">
-        <v>27.053</v>
+        <v>25.8364</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.3837</v>
+        <v>0.2473</v>
       </c>
       <c r="B25" s="0">
-        <v>27.2917</v>
+        <v>26.0897</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.4032</v>
+        <v>0.2726</v>
       </c>
       <c r="B26" s="0">
-        <v>27.4243</v>
+        <v>26.343</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.4251</v>
+        <v>0.3213</v>
       </c>
       <c r="B27" s="0">
-        <v>27.6456</v>
+        <v>26.7652</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.4463</v>
+        <v>0.3476</v>
       </c>
       <c r="B28" s="0">
-        <v>27.7201</v>
+        <v>26.9763</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.4671</v>
+        <v>0.372</v>
       </c>
       <c r="B29" s="0">
-        <v>27.9837</v>
+        <v>27.1451</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.4867</v>
+        <v>0.4255</v>
       </c>
       <c r="B30" s="0">
-        <v>27.9878</v>
+        <v>27.5251</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.5043</v>
+        <v>0.4479</v>
       </c>
       <c r="B31" s="0">
-        <v>28.1269</v>
+        <v>27.6939</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.5283</v>
+        <v>0.4771</v>
       </c>
       <c r="B32" s="0">
-        <v>28.2065</v>
+        <v>27.8628</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.5487</v>
+        <v>0.4956</v>
       </c>
       <c r="B33" s="0">
-        <v>28.3294</v>
+        <v>27.905</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.5679</v>
+        <v>0.5258</v>
       </c>
       <c r="B34" s="0">
-        <v>28.5305</v>
+        <v>28.1583</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.5914</v>
+        <v>0.5492</v>
       </c>
       <c r="B35" s="0">
-        <v>28.5141</v>
+        <v>28.285</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.6084</v>
+        <v>0.5725</v>
       </c>
       <c r="B36" s="0">
-        <v>28.6389</v>
+        <v>28.3694</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.6283</v>
+        <v>0.5949</v>
       </c>
       <c r="B37" s="0">
-        <v>28.7128</v>
+        <v>28.496</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.6503</v>
+        <v>0.6203</v>
       </c>
       <c r="B38" s="0">
-        <v>28.7775</v>
+        <v>28.5805</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.6709</v>
+        <v>0.6495</v>
       </c>
       <c r="B39" s="0">
-        <v>28.9413</v>
+        <v>28.7493</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.6954</v>
+        <v>0.6719</v>
       </c>
       <c r="B40" s="0">
-        <v>29.0552</v>
+        <v>28.7916</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.7196</v>
+        <v>0.6952</v>
       </c>
       <c r="B41" s="0">
-        <v>29.1386</v>
+        <v>28.9604</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.7406</v>
+        <v>0.7205</v>
       </c>
       <c r="B42" s="0">
-        <v>29.2342</v>
+        <v>29.0871</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.7613</v>
+        <v>0.7459</v>
       </c>
       <c r="B43" s="0">
-        <v>29.2791</v>
+        <v>29.1293</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.7804</v>
+        <v>0.816</v>
       </c>
       <c r="B44" s="0">
-        <v>29.3454</v>
+        <v>29.4248</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>0.8016</v>
+        <v>0.8598</v>
       </c>
       <c r="B45" s="0">
-        <v>29.3729</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.8221</v>
-      </c>
-      <c r="B46" s="0">
-        <v>29.4495</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.8417</v>
-      </c>
-      <c r="B47" s="0">
-        <v>29.4823</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.8612</v>
-      </c>
-      <c r="B48" s="0">
-        <v>29.4921</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.8823</v>
-      </c>
-      <c r="B49" s="0">
-        <v>29.5933</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.9025</v>
-      </c>
-      <c r="B50" s="0">
-        <v>29.6425</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.9246</v>
-      </c>
-      <c r="B51" s="0">
-        <v>29.6858</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.9459</v>
-      </c>
-      <c r="B52" s="0">
-        <v>29.7451</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.9593</v>
-      </c>
-      <c r="B53" s="0">
-        <v>29.7668</v>
-      </c>
-    </row>
-    <row r="54"/>
+        <v>29.5515</v>
+      </c>
+    </row>
+    <row r="46"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -5791,7 +5631,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5812,397 +5652,357 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.04</v>
+        <v>0.8539</v>
       </c>
       <c r="B3" s="0">
-        <v>9.2747</v>
+        <v>12.8338</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.06</v>
+        <v>0.7975</v>
       </c>
       <c r="B4" s="0">
-        <v>9.5113</v>
+        <v>12.6649</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.08</v>
+        <v>0.7488</v>
       </c>
       <c r="B5" s="0">
-        <v>9.7372</v>
+        <v>12.4538</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.1</v>
+        <v>0.7244</v>
       </c>
       <c r="B6" s="0">
-        <v>9.8942</v>
+        <v>12.4538</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.12</v>
+        <v>0.702</v>
       </c>
       <c r="B7" s="0">
-        <v>10.0106</v>
+        <v>12.3694</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.14</v>
+        <v>0.6772</v>
       </c>
       <c r="B8" s="0">
-        <v>10.1147</v>
+        <v>12.2216</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.16</v>
+        <v>0.6465</v>
       </c>
       <c r="B9" s="0">
-        <v>10.2047</v>
+        <v>12.1161</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.18</v>
+        <v>0.6203</v>
       </c>
       <c r="B10" s="0">
-        <v>10.278</v>
+        <v>12.0317</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2</v>
+        <v>0.5979</v>
       </c>
       <c r="B11" s="0">
-        <v>10.3525</v>
+        <v>11.905</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.22</v>
+        <v>0.5716</v>
       </c>
       <c r="B12" s="0">
-        <v>10.4436</v>
+        <v>11.8206</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.24</v>
+        <v>0.5472</v>
       </c>
       <c r="B13" s="0">
-        <v>10.5403</v>
+        <v>11.7361</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.26</v>
+        <v>0.5219</v>
       </c>
       <c r="B14" s="0">
-        <v>10.6314</v>
+        <v>11.6095</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.28</v>
+        <v>0.4966</v>
       </c>
       <c r="B15" s="0">
-        <v>10.7261</v>
+        <v>11.5251</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3</v>
+        <v>0.4752</v>
       </c>
       <c r="B16" s="0">
-        <v>10.8293</v>
+        <v>11.4828</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.32</v>
+        <v>0.4489</v>
       </c>
       <c r="B17" s="0">
-        <v>10.9326</v>
+        <v>11.314</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.34</v>
+        <v>0.4216</v>
       </c>
       <c r="B18" s="0">
-        <v>11.0253</v>
+        <v>11.2296</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.36</v>
+        <v>0.4002</v>
       </c>
       <c r="B19" s="0">
-        <v>11.0953</v>
+        <v>11.1451</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.38</v>
+        <v>0.3729</v>
       </c>
       <c r="B20" s="0">
-        <v>11.153</v>
+        <v>11.1029</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.4</v>
+        <v>0.3476</v>
       </c>
       <c r="B21" s="0">
-        <v>11.2359</v>
+        <v>10.8918</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.42</v>
+        <v>0.3262</v>
       </c>
       <c r="B22" s="0">
-        <v>11.3673</v>
+        <v>10.8074</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.44</v>
+        <v>0.2989</v>
       </c>
       <c r="B23" s="0">
-        <v>11.5175</v>
+        <v>10.723</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.46</v>
+        <v>0.2717</v>
       </c>
       <c r="B24" s="0">
-        <v>11.6549</v>
+        <v>10.6807</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.48</v>
+        <v>0.2483</v>
       </c>
       <c r="B25" s="0">
-        <v>11.7556</v>
+        <v>10.5119</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.5</v>
+        <v>0.223</v>
       </c>
       <c r="B26" s="0">
-        <v>11.8173</v>
+        <v>10.4697</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.52</v>
+        <v>0.1996</v>
       </c>
       <c r="B27" s="0">
-        <v>11.8729</v>
+        <v>10.343</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.54</v>
+        <v>0.1714</v>
       </c>
       <c r="B28" s="0">
-        <v>11.9452</v>
+        <v>10.2164</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.56</v>
+        <v>0.1714</v>
       </c>
       <c r="B29" s="0">
-        <v>12.0118</v>
+        <v>10.2164</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.58</v>
+        <v>0.15</v>
       </c>
       <c r="B30" s="0">
-        <v>12.0502</v>
+        <v>10.1319</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.6</v>
+        <v>0.1237</v>
       </c>
       <c r="B31" s="0">
-        <v>12.0762</v>
+        <v>10.0053</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.62</v>
+        <v>0.1022</v>
       </c>
       <c r="B32" s="0">
-        <v>12.1148</v>
+        <v>9.8364</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.64</v>
+        <v>0.0925</v>
       </c>
       <c r="B33" s="0">
-        <v>12.1839</v>
+        <v>9.8364</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.66</v>
+        <v>0.0828</v>
       </c>
       <c r="B34" s="0">
-        <v>12.2862</v>
+        <v>9.8364</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.68</v>
+        <v>0.074</v>
       </c>
       <c r="B35" s="0">
-        <v>12.3957</v>
+        <v>9.7942</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.7</v>
+        <v>0.0633</v>
       </c>
       <c r="B36" s="0">
-        <v>12.4875</v>
+        <v>9.7098</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.72</v>
+        <v>0.0545</v>
       </c>
       <c r="B37" s="0">
-        <v>12.5572</v>
+        <v>9.6675</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.74</v>
+        <v>0.0448</v>
       </c>
       <c r="B38" s="0">
-        <v>12.615</v>
+        <v>9.5409</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.76</v>
+        <v>0.036</v>
       </c>
       <c r="B39" s="0">
-        <v>12.6664</v>
+        <v>9.4142</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.78</v>
+        <v>0.036</v>
       </c>
       <c r="B40" s="0">
-        <v>12.7114</v>
+        <v>9.4142</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.8</v>
+        <v>0.0263</v>
       </c>
       <c r="B41" s="0">
-        <v>12.7512</v>
+        <v>9.2876</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.82</v>
+        <v>0.0195</v>
       </c>
       <c r="B42" s="0">
-        <v>12.7877</v>
+        <v>9.1187</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.84</v>
+        <v>0.0195</v>
       </c>
       <c r="B43" s="0">
-        <v>12.8258</v>
+        <v>9.1187</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.86</v>
+        <v>0.0146</v>
       </c>
       <c r="B44" s="0">
-        <v>12.8731</v>
+        <v>8.9921</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>0.88</v>
+        <v>0.0097</v>
       </c>
       <c r="B45" s="0">
-        <v>12.9374</v>
+        <v>8.6544</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>0.9</v>
+        <v>0.0068</v>
       </c>
       <c r="B46" s="0">
-        <v>13.0183</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B47" s="0">
-        <v>13.1001</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B48" s="0">
-        <v>13.1794</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.9523</v>
-      </c>
-      <c r="B49" s="0">
-        <v>13.2559</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.0243</v>
-      </c>
-      <c r="B50" s="0">
-        <v>9.1187</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.0078</v>
-      </c>
-      <c r="B51" s="0">
-        <v>8.6544</v>
-      </c>
-    </row>
-    <row r="52"/>
+        <v>8.4855</v>
+      </c>
+    </row>
+    <row r="47"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -6211,7 +6011,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6232,381 +6032,285 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0261</v>
+        <v>0.9133</v>
       </c>
       <c r="B3" s="0">
-        <v>12.2888</v>
+        <v>17.3931</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0466</v>
+        <v>0.8569</v>
       </c>
       <c r="B4" s="0">
-        <v>12.5644</v>
+        <v>17.0976</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0671</v>
+        <v>0.8043</v>
       </c>
       <c r="B5" s="0">
-        <v>12.77</v>
+        <v>16.8443</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0876</v>
+        <v>0.7741</v>
       </c>
       <c r="B6" s="0">
-        <v>12.9625</v>
+        <v>16.6755</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1079</v>
+        <v>0.7157</v>
       </c>
       <c r="B7" s="0">
-        <v>13.0917</v>
+        <v>16.3799</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1287</v>
+        <v>0.667</v>
       </c>
       <c r="B8" s="0">
-        <v>13.2969</v>
+        <v>16.1266</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1517</v>
+        <v>0.6105</v>
       </c>
       <c r="B9" s="0">
-        <v>13.4149</v>
+        <v>15.8311</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1722</v>
+        <v>0.5784</v>
       </c>
       <c r="B10" s="0">
-        <v>13.4729</v>
+        <v>15.6201</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1938</v>
+        <v>0.554</v>
       </c>
       <c r="B11" s="0">
-        <v>13.6939</v>
+        <v>15.5778</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2133</v>
+        <v>0.4966</v>
       </c>
       <c r="B12" s="0">
-        <v>13.7775</v>
+        <v>15.1979</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2338</v>
+        <v>0.4703</v>
       </c>
       <c r="B13" s="0">
-        <v>13.9248</v>
+        <v>15.0712</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.2536</v>
+        <v>0.4489</v>
       </c>
       <c r="B14" s="0">
-        <v>13.9552</v>
+        <v>14.9024</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.2783</v>
+        <v>0.4148</v>
       </c>
       <c r="B15" s="0">
-        <v>14.1053</v>
+        <v>14.7335</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.2979</v>
+        <v>0.3583</v>
       </c>
       <c r="B16" s="0">
-        <v>14.1462</v>
+        <v>14.438</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.32</v>
+        <v>0.334</v>
       </c>
       <c r="B17" s="0">
-        <v>14.3221</v>
+        <v>14.3113</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.3382</v>
+        <v>0.2999</v>
       </c>
       <c r="B18" s="0">
-        <v>14.3976</v>
+        <v>14.1003</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.3594</v>
+        <v>0.2502</v>
       </c>
       <c r="B19" s="0">
-        <v>14.4935</v>
+        <v>13.8892</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.3799</v>
+        <v>0.2249</v>
       </c>
       <c r="B20" s="0">
-        <v>14.5955</v>
+        <v>13.7625</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.4009</v>
+        <v>0.1947</v>
       </c>
       <c r="B21" s="0">
-        <v>14.7678</v>
+        <v>13.5937</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.421</v>
+        <v>0.1723</v>
       </c>
       <c r="B22" s="0">
-        <v>14.8471</v>
+        <v>13.467</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.4436</v>
+        <v>0.1509</v>
       </c>
       <c r="B23" s="0">
-        <v>14.9501</v>
+        <v>13.3404</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.4619</v>
+        <v>0.1217</v>
       </c>
       <c r="B24" s="0">
-        <v>15.0768</v>
+        <v>13.1715</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.4817</v>
+        <v>0.0954</v>
       </c>
       <c r="B25" s="0">
-        <v>15.1557</v>
+        <v>13.0026</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.5016</v>
+        <v>0.0876</v>
       </c>
       <c r="B26" s="0">
-        <v>15.2903</v>
+        <v>12.9604</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5264</v>
+        <v>0.0808</v>
       </c>
       <c r="B27" s="0">
-        <v>15.4151</v>
+        <v>12.876</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.5464</v>
+        <v>0.075</v>
       </c>
       <c r="B28" s="0">
-        <v>15.5084</v>
+        <v>12.8338</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.5675</v>
+        <v>0.0662</v>
       </c>
       <c r="B29" s="0">
-        <v>15.6001</v>
+        <v>12.7071</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.585</v>
+        <v>0.0584</v>
       </c>
       <c r="B30" s="0">
-        <v>15.6633</v>
+        <v>12.6227</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.6107</v>
+        <v>0.0506</v>
       </c>
       <c r="B31" s="0">
-        <v>15.8638</v>
+        <v>12.5383</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.6302</v>
+        <v>0.0399</v>
       </c>
       <c r="B32" s="0">
-        <v>15.9708</v>
+        <v>12.3694</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.6546</v>
+        <v>0.0331</v>
       </c>
       <c r="B33" s="0">
-        <v>16.1403</v>
+        <v>12.2427</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.674</v>
+        <v>0.0253</v>
       </c>
       <c r="B34" s="0">
-        <v>16.2137</v>
+        <v>12.0317</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.6968</v>
+        <v>0.0204</v>
       </c>
       <c r="B35" s="0">
-        <v>16.3092</v>
+        <v>11.905</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.7151</v>
+        <v>0.0136</v>
       </c>
       <c r="B36" s="0">
-        <v>16.3839</v>
+        <v>11.6939</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.7414</v>
+        <v>0.0088</v>
       </c>
       <c r="B37" s="0">
-        <v>16.5834</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.7638</v>
-      </c>
-      <c r="B38" s="0">
-        <v>16.7217</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.7838</v>
-      </c>
-      <c r="B39" s="0">
-        <v>16.774</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.8049</v>
-      </c>
-      <c r="B40" s="0">
-        <v>16.871</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.8259</v>
-      </c>
-      <c r="B41" s="0">
-        <v>16.996</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.8469</v>
-      </c>
-      <c r="B42" s="0">
-        <v>17.1272</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.8662</v>
-      </c>
-      <c r="B43" s="0">
-        <v>17.2205</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.887</v>
-      </c>
-      <c r="B44" s="0">
-        <v>17.2967</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.9075</v>
-      </c>
-      <c r="B45" s="0">
-        <v>17.3103</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.929</v>
-      </c>
-      <c r="B46" s="0">
-        <v>17.5381</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.949</v>
-      </c>
-      <c r="B47" s="0">
-        <v>17.6166</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.9684</v>
-      </c>
-      <c r="B48" s="0">
-        <v>17.8061</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.9881</v>
-      </c>
-      <c r="B49" s="0">
-        <v>17.967</v>
-      </c>
-    </row>
-    <row r="50"/>
+        <v>11.3984</v>
+      </c>
+    </row>
+    <row r="38"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -6615,7 +6319,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6636,397 +6340,341 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.04</v>
+        <v>0.9026</v>
       </c>
       <c r="B3" s="0">
-        <v>3.7892</v>
+        <v>6.1636</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.06</v>
+        <v>0.85</v>
       </c>
       <c r="B4" s="0">
-        <v>4.0045</v>
+        <v>6.0792</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.08</v>
+        <v>0.7468</v>
       </c>
       <c r="B5" s="0">
-        <v>4.2045</v>
+        <v>5.9103</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.1</v>
+        <v>0.7225</v>
       </c>
       <c r="B6" s="0">
-        <v>4.3599</v>
+        <v>5.8259</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.12</v>
+        <v>0.6962</v>
       </c>
       <c r="B7" s="0">
-        <v>4.4677</v>
+        <v>5.7836</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.14</v>
+        <v>0.6699</v>
       </c>
       <c r="B8" s="0">
-        <v>4.5512</v>
+        <v>5.7414</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.16</v>
+        <v>0.6475</v>
       </c>
       <c r="B9" s="0">
-        <v>4.6294</v>
+        <v>5.657</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.18</v>
+        <v>0.6212</v>
       </c>
       <c r="B10" s="0">
-        <v>4.7121</v>
+        <v>5.6148</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2</v>
+        <v>0.6212</v>
       </c>
       <c r="B11" s="0">
-        <v>4.7952</v>
+        <v>5.6148</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.22</v>
+        <v>0.5969</v>
       </c>
       <c r="B12" s="0">
-        <v>4.8714</v>
+        <v>5.6148</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.24</v>
+        <v>0.5725</v>
       </c>
       <c r="B13" s="0">
-        <v>4.938</v>
+        <v>5.5303</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.26</v>
+        <v>0.5492</v>
       </c>
       <c r="B14" s="0">
-        <v>4.9969</v>
+        <v>5.4881</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.28</v>
+        <v>0.5219</v>
       </c>
       <c r="B15" s="0">
-        <v>5.0563</v>
+        <v>5.4881</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3</v>
+        <v>0.4985</v>
       </c>
       <c r="B16" s="0">
-        <v>5.124</v>
+        <v>5.4037</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.32</v>
+        <v>0.4752</v>
       </c>
       <c r="B17" s="0">
-        <v>5.1884</v>
+        <v>5.3193</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.34</v>
+        <v>0.4489</v>
       </c>
       <c r="B18" s="0">
-        <v>5.2329</v>
+        <v>5.3193</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.36</v>
+        <v>0.4206</v>
       </c>
       <c r="B19" s="0">
-        <v>5.267</v>
+        <v>5.277</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.38</v>
+        <v>0.4002</v>
       </c>
       <c r="B20" s="0">
-        <v>5.3077</v>
+        <v>5.1926</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.4</v>
+        <v>0.3729</v>
       </c>
       <c r="B21" s="0">
-        <v>5.3573</v>
+        <v>5.1082</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.42</v>
+        <v>0.3476</v>
       </c>
       <c r="B22" s="0">
-        <v>5.4105</v>
+        <v>5.066</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.44</v>
+        <v>0.3213</v>
       </c>
       <c r="B23" s="0">
-        <v>5.4619</v>
+        <v>4.9815</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.46</v>
+        <v>0.298</v>
       </c>
       <c r="B24" s="0">
-        <v>5.507</v>
+        <v>4.8971</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.48</v>
+        <v>0.2736</v>
       </c>
       <c r="B25" s="0">
-        <v>5.5551</v>
+        <v>4.8127</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.5</v>
+        <v>0.2483</v>
       </c>
       <c r="B26" s="0">
-        <v>5.6188</v>
+        <v>4.7704</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.52</v>
+        <v>0.2201</v>
       </c>
       <c r="B27" s="0">
-        <v>5.6786</v>
+        <v>4.686</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.54</v>
+        <v>0.1967</v>
       </c>
       <c r="B28" s="0">
-        <v>5.706</v>
+        <v>4.5594</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.56</v>
+        <v>0.1694</v>
       </c>
       <c r="B29" s="0">
-        <v>5.7099</v>
+        <v>4.4749</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.58</v>
+        <v>0.1694</v>
       </c>
       <c r="B30" s="0">
-        <v>5.707</v>
+        <v>4.4749</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.6</v>
+        <v>0.1451</v>
       </c>
       <c r="B31" s="0">
-        <v>5.7108</v>
+        <v>4.3905</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.62</v>
+        <v>0.1227</v>
       </c>
       <c r="B32" s="0">
-        <v>5.7275</v>
+        <v>4.3061</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.64</v>
+        <v>0.1227</v>
       </c>
       <c r="B33" s="0">
-        <v>5.7506</v>
+        <v>4.3061</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.66</v>
+        <v>0.0993</v>
       </c>
       <c r="B34" s="0">
-        <v>5.7736</v>
+        <v>4.2639</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.68</v>
+        <v>0.0886</v>
       </c>
       <c r="B35" s="0">
-        <v>5.8003</v>
+        <v>4.1794</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.7</v>
+        <v>0.0808</v>
       </c>
       <c r="B36" s="0">
-        <v>5.8363</v>
+        <v>4.095</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.72</v>
+        <v>0.0701</v>
       </c>
       <c r="B37" s="0">
-        <v>5.8813</v>
+        <v>4.0528</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.74</v>
+        <v>0.0604</v>
       </c>
       <c r="B38" s="0">
-        <v>5.935</v>
+        <v>3.9261</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.76</v>
+        <v>0.0477</v>
       </c>
       <c r="B39" s="0">
-        <v>5.9894</v>
+        <v>3.8417</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.78</v>
+        <v>0.036</v>
       </c>
       <c r="B40" s="0">
-        <v>6.0378</v>
+        <v>3.715</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.8</v>
+        <v>0.0282</v>
       </c>
       <c r="B41" s="0">
-        <v>6.0809</v>
+        <v>3.715</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.82</v>
+        <v>0.0136</v>
       </c>
       <c r="B42" s="0">
-        <v>6.1169</v>
+        <v>3.5462</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.84</v>
+        <v>0.0049</v>
       </c>
       <c r="B43" s="0">
-        <v>6.149</v>
+        <v>3.2084</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.86</v>
+        <v>0.001</v>
       </c>
       <c r="B44" s="0">
-        <v>6.1789</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B45" s="0">
-        <v>6.2077</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B46" s="0">
-        <v>6.2397</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B47" s="0">
-        <v>6.278</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B48" s="0">
-        <v>6.3341</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.9679</v>
-      </c>
-      <c r="B49" s="0">
-        <v>6.3747</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.0253</v>
-      </c>
-      <c r="B50" s="0">
-        <v>3.715</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.0058</v>
-      </c>
-      <c r="B51" s="0">
-        <v>3.4195</v>
-      </c>
-    </row>
-    <row r="52"/>
+        <v>2.3219</v>
+      </c>
+    </row>
+    <row r="45"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 85 Valorisation of Natural Fibres/Data85_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 85 Valorisation of Natural Fibres/Data85_all_graphs_excel.xlsx
@@ -5,11 +5,11 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 1 BB-32  0-1-0-32 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 1 BS-62  0-1-0-32 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 1 BW-42  0-1-0-32 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 1 BW-63  0-1-0-32 " sheetId="4" r:id="rId6"/>
-    <sheet name="Figure 1 BW-C  0-1-0-32 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 1 BB-32  0&amp;1&amp;0&amp;32 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 1 BS-62  0&amp;1&amp;0&amp;32 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 1 BW-42  0&amp;1&amp;0&amp;32 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 1 BW-63  0&amp;1&amp;0&amp;32 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 1 BW-C  0&amp;1&amp;0&amp;32 " sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -172,12 +172,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 BB-32  0-1-0-32 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 BB-32  0&amp;1&amp;0&amp;32 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 BB-32  0-1-0-32 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 BB-32  0&amp;1&amp;0&amp;32 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -486,12 +486,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 BS-62  0-1-0-32 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 BS-62  0&amp;1&amp;0&amp;32 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 BS-62  0-1-0-32 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 BS-62  0&amp;1&amp;0&amp;32 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -800,12 +800,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 BW-42  0-1-0-32 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 BW-42  0&amp;1&amp;0&amp;32 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 BW-42  0-1-0-32 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 BW-42  0&amp;1&amp;0&amp;32 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1114,12 +1114,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 BW-63  0-1-0-32 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 BW-63  0&amp;1&amp;0&amp;32 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 BW-63  0-1-0-32 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 BW-63  0&amp;1&amp;0&amp;32 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1428,12 +1428,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 BW-C  0-1-0-32 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 BW-C  0&amp;1&amp;0&amp;32 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 BW-C  0-1-0-32 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 BW-C  0&amp;1&amp;0&amp;32 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
